--- a/biology/Botanique/Scaevola_taccada/Scaevola_taccada.xlsx
+++ b/biology/Botanique/Scaevola_taccada/Scaevola_taccada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scaevola taccada est une plante de la famille des Goodeniaceae, caractéristique des plages du bassin Indo-Pacifique.
 Appelé veloutier vert à La Réunion et à l'île Maurice, ou manioc marron bord de mer à La Réunion.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Scaevola taccada[1] est un arbuste buissonnant atteignant 2 m de haut.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Scaevola taccada est un arbuste buissonnant atteignant 2 m de haut.
 Les feuilles persistantes sont charnues, sessiles, spatulées-obovées, grossièrement dentées à l'extrémité, de 6-10(18) cm de long sur 7-8 cm de large.
 Les fleurs sont groupées en cymes bipares régulières, de couleur blanches ou jaune très pâle. La corolle comporte un long tube (0.5-1 cm), fendu dorsalement et densément pubescent à l'intérieur, terminé par 5 lobes de 4-5 mm disposés en demi cercle.
 Le fruit est une drupe, conservant les lobes du calice, blanc nacré à maturité, légèrement côtelé sur le frais, fortement sur le sec. Le noyau de 6-8 mm contient 2 graines.
@@ -548,7 +562,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce des milieux riches en sel (halophiles), très typique des plages tropicales.
 À La Réunion, on le trouve dans la frange externe du fourré littoral, sur sable, roches ou coraux où il peut vivre en colonies importantes. Il remonte à l'intérieur des terres dans la végétation pionnière d'arbustes et de fougères sur les récentes coulées de lave.
@@ -580,7 +596,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante peut être trouvée dans le bassin Indo-Pacifique. Elle est abondante sur les côtes rocheuses du sud et du sud-est de La Réunion.
 On la trouve aussi en Nouvelle-Calédonie et également en Guadeloupe.
@@ -612,7 +630,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lobelia taccada Gaertn.
 Scaevola frutescens K.Krause
@@ -647,10 +667,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Noms locaux
-Cette plante porte de nombreux noms vernaculaires, dont : veveda en fidjien, nanasu à Guam, nauaka-kahakai aux îles Hawaii, mao aux Kiribati, emet en nauruan, naupata en Polynésie française, manioc marron bord de mer en créole réunionnais, veloutier vert à l'île Maurice, to'ito'i en samoan, vouloutye en créole seychellois, ngahu en tongan et gasu aux Tuvalu.
-Philatélie
-Figurée sur un timbre de Polynésie française (émission le 7 novembre 2002, 130 f.) faisant partie d'une série de trois (Les fleurs de sel) consacrée aux plantes halophiles de l'archipel. Ce timbre a la particularité de comporter une erreur, qui porte sur le nom de genre (Scaveola au lieu de Scaevola).</t>
+          <t>Noms locaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante porte de nombreux noms vernaculaires, dont : veveda en fidjien, nanasu à Guam, nauaka-kahakai aux îles Hawaii, mao aux Kiribati, emet en nauruan, naupata en Polynésie française, manioc marron bord de mer en créole réunionnais, veloutier vert à l'île Maurice, to'ito'i en samoan, vouloutye en créole seychellois, ngahu en tongan et gasu aux Tuvalu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Scaevola_taccada</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Scaevola_taccada</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>La plante et l'homme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Figurée sur un timbre de Polynésie française (émission le 7 novembre 2002, 130 f.) faisant partie d'une série de trois (Les fleurs de sel) consacrée aux plantes halophiles de l'archipel. Ce timbre a la particularité de comporter une erreur, qui porte sur le nom de genre (Scaveola au lieu de Scaevola).</t>
         </is>
       </c>
     </row>
